--- a/src/test/resources/test2.xlsx
+++ b/src/test/resources/test2.xlsx
@@ -4,19 +4,20 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="90" windowWidth="20115" windowHeight="8520"/>
+    <workbookView xWindow="-1455" yWindow="945" windowWidth="15030" windowHeight="4245"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
     <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
     <sheet name="Hoja3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>Nombre</t>
   </si>
@@ -30,58 +31,25 @@
     <t>Colegio</t>
   </si>
   <si>
-    <t>Ignacio Fernández Fernández</t>
-  </si>
-  <si>
-    <t>56378435Q</t>
-  </si>
-  <si>
-    <t>ignacio@uniovi.es</t>
-  </si>
-  <si>
-    <t>Naucé López González</t>
-  </si>
-  <si>
-    <t>53678541Z</t>
-  </si>
-  <si>
-    <t>nauce@uniovi.es</t>
-  </si>
-  <si>
-    <t>48976526C</t>
-  </si>
-  <si>
-    <t>jorge@uniovi.es</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jorge Riopedre Vega </t>
-  </si>
-  <si>
-    <t>Martín Jiménez Rodríguez</t>
-  </si>
-  <si>
-    <t>Marta Pérez Robles</t>
-  </si>
-  <si>
-    <t>José Luis Villa Vega</t>
-  </si>
-  <si>
-    <t>12345678A</t>
-  </si>
-  <si>
-    <t>12345678B</t>
-  </si>
-  <si>
-    <t>12345678C</t>
-  </si>
-  <si>
-    <t>martin@uniovi.es</t>
-  </si>
-  <si>
-    <t>marta@uniovi.es</t>
-  </si>
-  <si>
-    <t>jose@uniovi.es</t>
+    <t>Dddd</t>
+  </si>
+  <si>
+    <t>44444444D</t>
+  </si>
+  <si>
+    <t>55555555E</t>
+  </si>
+  <si>
+    <t>dd@uniovi.es</t>
+  </si>
+  <si>
+    <t>ee@uniovi.es</t>
+  </si>
+  <si>
+    <t>ff@uniovi.es</t>
+  </si>
+  <si>
+    <t>66666666F</t>
   </si>
 </sst>
 </file>
@@ -435,7 +403,7 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -467,90 +435,50 @@
         <v>5</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D2" s="1">
         <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="A3" s="1"/>
       <c r="B3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>8</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>9</v>
       </c>
       <c r="D3" s="1">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>12</v>
-      </c>
+      <c r="A4" s="1"/>
       <c r="B4" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D4" s="1">
         <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D5">
-        <v>14</v>
-      </c>
+      <c r="C5" s="2"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D6">
-        <v>5</v>
-      </c>
+      <c r="C6" s="2"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>15</v>
-      </c>
-      <c r="B7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D7">
-        <v>6</v>
-      </c>
+      <c r="C7" s="2"/>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1"/>
     <hyperlink ref="C3" r:id="rId2"/>
     <hyperlink ref="C4" r:id="rId3"/>
-    <hyperlink ref="C5" r:id="rId4"/>
-    <hyperlink ref="C6" r:id="rId5"/>
-    <hyperlink ref="C7" r:id="rId6"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
